--- a/documentation/react-unit-testing-sheet.xlsx
+++ b/documentation/react-unit-testing-sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f51d7bd0a75ca0e/Documents/git-projects/sis-project/sis-calendar-frontend/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f51d7bd0a75ca0e/Documents/GitHub/sis-calendar-frontend/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA2D9CE-D831-458A-A8DE-3E81EF72A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BCA2D9CE-D831-458A-A8DE-3E81EF72A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AB43A05-79ED-4DDB-B261-9D4BF254980E}"/>
   <bookViews>
-    <workbookView xWindow="5350" yWindow="4140" windowWidth="16920" windowHeight="10450" xr2:uid="{04AE5837-ECD8-4336-A4A9-F56AB5496548}"/>
+    <workbookView xWindow="5350" yWindow="3870" windowWidth="16920" windowHeight="10450" xr2:uid="{04AE5837-ECD8-4336-A4A9-F56AB5496548}"/>
   </bookViews>
   <sheets>
     <sheet name="UI Functionality" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Description</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>helo</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,6 +448,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/react-unit-testing-sheet.xlsx
+++ b/documentation/react-unit-testing-sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f51d7bd0a75ca0e/Documents/GitHub/sis-calendar-frontend/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BCA2D9CE-D831-458A-A8DE-3E81EF72A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AB43A05-79ED-4DDB-B261-9D4BF254980E}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{BCA2D9CE-D831-458A-A8DE-3E81EF72A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E295B8C-AE35-49EC-AFA8-E301C428EDEC}"/>
   <bookViews>
-    <workbookView xWindow="5350" yWindow="3870" windowWidth="16920" windowHeight="10450" xr2:uid="{04AE5837-ECD8-4336-A4A9-F56AB5496548}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{04AE5837-ECD8-4336-A4A9-F56AB5496548}"/>
   </bookViews>
   <sheets>
     <sheet name="UI Functionality" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Description</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Function Name</t>
   </si>
   <si>
-    <t>F 0.0</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -59,7 +56,115 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>helo</t>
+    <t>FD001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing the front page to ensure that something pop ups </t>
+  </si>
+  <si>
+    <t>That a page will pop us</t>
+  </si>
+  <si>
+    <t>Yes the weclome page pops up</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>FD002</t>
+  </si>
+  <si>
+    <t>That the calendar button works and will direct you to the the calendar pages</t>
+  </si>
+  <si>
+    <t>Yes the calendar button directs you to the front page</t>
+  </si>
+  <si>
+    <t>FD003</t>
+  </si>
+  <si>
+    <t>Welcome Page  Calendar Button</t>
+  </si>
+  <si>
+    <t>Welcome Page Calendar Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome Page Profile button </t>
+  </si>
+  <si>
+    <t>Welcome page calendar button is working and direct you to a calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weclome page profile button is working and directs you to a calendar </t>
+  </si>
+  <si>
+    <t>The profile button is working and directs you a profile page</t>
+  </si>
+  <si>
+    <t>The profile button will direct you to a profile page where you can make changes</t>
+  </si>
+  <si>
+    <t>FD004</t>
+  </si>
+  <si>
+    <t>Profile page details</t>
+  </si>
+  <si>
+    <t>The profile page allows you to ammend and change profile details</t>
+  </si>
+  <si>
+    <t>The profile page allows me to enter into text boxes and change the required details</t>
+  </si>
+  <si>
+    <t>The profile pages has workable text boxes and allows you to change texts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD005 </t>
+  </si>
+  <si>
+    <t>Welcome page task button</t>
+  </si>
+  <si>
+    <t>The task button brings you to a task pages with different tasks entities</t>
+  </si>
+  <si>
+    <t>The task button will bring you to a task page</t>
+  </si>
+  <si>
+    <t>The task button work and bring you to a task page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD006 </t>
+  </si>
+  <si>
+    <t>Calendar Drag/ Drop</t>
+  </si>
+  <si>
+    <t>The Calendar  has a drag and drop feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Drag and Drop Feaure work </t>
+  </si>
+  <si>
+    <t>Yes the drag and drop features and you are able to drag and drop around the calendar</t>
+  </si>
+  <si>
+    <t>FD007</t>
+  </si>
+  <si>
+    <t>Different Calendar Views</t>
+  </si>
+  <si>
+    <t>The calendar has a daily, weekly and monthly view</t>
+  </si>
+  <si>
+    <t>The calendar view button work and you can change views</t>
+  </si>
+  <si>
+    <t>The calendar view button works and you can change views</t>
   </si>
 </sst>
 </file>
@@ -95,8 +200,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA7065B-CE92-4446-96B7-250FCF1B1C13}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,35 +530,261 @@
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
     <col min="3" max="3" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/react-unit-testing-sheet.xlsx
+++ b/documentation/react-unit-testing-sheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f51d7bd0a75ca0e/Documents/GitHub/sis-calendar-frontend/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{BCA2D9CE-D831-458A-A8DE-3E81EF72A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E295B8C-AE35-49EC-AFA8-E301C428EDEC}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{BCA2D9CE-D831-458A-A8DE-3E81EF72A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{673F95CB-7A91-48E8-AF7A-16651292772D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{04AE5837-ECD8-4336-A4A9-F56AB5496548}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{04AE5837-ECD8-4336-A4A9-F56AB5496548}"/>
   </bookViews>
   <sheets>
-    <sheet name="UI Functionality" sheetId="1" r:id="rId1"/>
-    <sheet name="UI Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="UI Test Case" sheetId="1" r:id="rId1"/>
+    <sheet name="UI Test Case Photo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -165,13 +165,49 @@
   </si>
   <si>
     <t>The calendar view button works and you can change views</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>FD005</t>
+  </si>
+  <si>
+    <t>FD006</t>
+  </si>
+  <si>
+    <t>FD008</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>Back End</t>
+  </si>
+  <si>
+    <t>Testing the back end integration</t>
+  </si>
+  <si>
+    <t>Testing the backend integration with front end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no error message between front and back end </t>
+  </si>
+  <si>
+    <t>There was a lot of error message due to licensing regarding dev extreme</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Please scroll down for Test Cases Photos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +215,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,10 +248,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,6 +274,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D53230A-506F-75D9-88AA-B600EEB0411B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1263651"/>
+          <a:ext cx="6038850" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419643</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1E7BD2-A829-CA4A-9B7B-8445238730A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="1181100"/>
+          <a:ext cx="8433343" cy="4792248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>132134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C95B190-682C-CD73-AE9A-8F2E92EDC60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7380488"/>
+          <a:ext cx="6048375" cy="3157709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103187</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>389494</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>168182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AE4098-3D1E-26F1-4F79-1FE6BA3A8542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6826250" y="7524751"/>
+          <a:ext cx="8231744" cy="2684369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538295</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124666BF-EB9C-A784-089E-0DEA39F9973A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="71438" y="11564937"/>
+          <a:ext cx="5967545" cy="2944813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198437</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>12944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5706830B-DEC5-1678-8660-A57FFE596905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6723063" y="11533189"/>
+          <a:ext cx="6310312" cy="3267318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41319</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7E7A19-6F91-73F9-D1E0-2BB4A7A75B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611188" y="15700375"/>
+          <a:ext cx="5542006" cy="3397250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>289380</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>144724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2514244B-CDE9-7401-5434-F8AF8FE58B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6723063" y="15517813"/>
+          <a:ext cx="8846005" cy="5073911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA7065B-CE92-4446-96B7-250FCF1B1C13}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,186 +946,186 @@
     <col min="6" max="6" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -723,25 +1134,39 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -750,7 +1175,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -759,7 +1184,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -768,7 +1193,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -786,19 +1211,93 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A41BFC6-51CE-46E6-87ED-11C918896455}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:W84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>